--- a/data/trans_dic/P33A-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P33A-Dificultad-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.7010904129919642</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.5996352893439403</v>
+        <v>0.5996352893439402</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7437263731869366</v>
@@ -664,7 +664,7 @@
         <v>0.7558918882484582</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.654313360356569</v>
+        <v>0.6543133603565691</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7920333633499073</v>
+        <v>0.7959950149422564</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7941560073808099</v>
+        <v>0.791679831207861</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.678847895981055</v>
+        <v>0.67991456258851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.641485788454594</v>
+        <v>0.642645203541512</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6745629230443351</v>
+        <v>0.6720930693889657</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5647449208377249</v>
+        <v>0.5664958340818098</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7252836062494135</v>
+        <v>0.722464726965745</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.73846701806825</v>
+        <v>0.7363539075416849</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6267934533846664</v>
+        <v>0.6242821796563945</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8437609572834043</v>
+        <v>0.8459854888956798</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8390986812661018</v>
+        <v>0.8389629547341469</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.764725136474223</v>
+        <v>0.7652579519619157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7014358557325433</v>
+        <v>0.7005031255991518</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7286941858311297</v>
+        <v>0.7262500477830798</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6351323312133563</v>
+        <v>0.6325984377198791</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7644964270056067</v>
+        <v>0.7619983241416859</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7745049358580363</v>
+        <v>0.7721272734260266</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6833976970186394</v>
+        <v>0.6787776486167367</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.8575211061143279</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7876040305453545</v>
+        <v>0.7876040305453548</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.750246336830611</v>
@@ -764,7 +764,7 @@
         <v>0.7458117050641784</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.6937079800935692</v>
+        <v>0.693707980093569</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.7997351004736902</v>
@@ -773,7 +773,7 @@
         <v>0.7991223958671916</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.7371328914296507</v>
+        <v>0.7371328914296505</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8312741177282829</v>
+        <v>0.8333449059963773</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8329597496354998</v>
+        <v>0.8343001359688977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7569541940098353</v>
+        <v>0.7583428722355681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7221365012418386</v>
+        <v>0.7215545858912996</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7149848108295106</v>
+        <v>0.7167545783997992</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6699623099213945</v>
+        <v>0.6681188040270707</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.781125986864512</v>
+        <v>0.7817664191466384</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7776946501893722</v>
+        <v>0.7809705393985307</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7181385443871628</v>
+        <v>0.7207087238749371</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8781336109979828</v>
+        <v>0.8774337955051577</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8791578514790561</v>
+        <v>0.87814348691519</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8136771580282171</v>
+        <v>0.8146421644785932</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7756668514450056</v>
+        <v>0.7758015579123932</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7703468278128198</v>
+        <v>0.7737117756760068</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7174997510010813</v>
+        <v>0.7180694985940272</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8184312951736242</v>
+        <v>0.8170518325980208</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8170355190396217</v>
+        <v>0.818700942731221</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7549526205704996</v>
+        <v>0.7545116195558318</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.8707083318851088</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8721315795128061</v>
+        <v>0.872131579512806</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7655124337880191</v>
@@ -873,7 +873,7 @@
         <v>0.7855611860976832</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8133648583425023</v>
+        <v>0.8133648583425024</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.8109556566114837</v>
@@ -882,7 +882,7 @@
         <v>0.8295150226076248</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8427595855387452</v>
+        <v>0.8427595855387451</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8286661873534032</v>
+        <v>0.8284816378741637</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.842938970386624</v>
+        <v>0.8440250026604196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8509014770670262</v>
+        <v>0.8507376975392867</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7362001400072229</v>
+        <v>0.7375517232127389</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7515908048857967</v>
+        <v>0.7532602245544622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7918766388575137</v>
+        <v>0.7912774496038122</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7907602385475639</v>
+        <v>0.7913330778388314</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8083205599750237</v>
+        <v>0.8101157798015792</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8277889257427504</v>
+        <v>0.8286190101292773</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8774304590966444</v>
+        <v>0.8782370896324873</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8938445106462065</v>
+        <v>0.8923227906936962</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8921526523999982</v>
+        <v>0.8925030719305316</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7941014245094012</v>
+        <v>0.7946783075063285</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8123552562172974</v>
+        <v>0.8111328573123645</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8336803420841273</v>
+        <v>0.833334776852787</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8292732686781127</v>
+        <v>0.8290631840839939</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8466437206050346</v>
+        <v>0.8488257986346496</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8570244699011388</v>
+        <v>0.8564467759193582</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8439372377434206</v>
+        <v>0.8471439398011191</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7925547449521542</v>
+        <v>0.790919549878059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8514467241614104</v>
+        <v>0.8483450362353624</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7441014434600641</v>
+        <v>0.7418641937157973</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6900085982478728</v>
+        <v>0.6917108215926734</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7767862261224384</v>
+        <v>0.7780502878813998</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8090277858507963</v>
+        <v>0.810546225059681</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7538992834408442</v>
+        <v>0.7537990191593101</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8225986358764342</v>
+        <v>0.8238341017204636</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.907892783223393</v>
+        <v>0.908701975598617</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8633751879767482</v>
+        <v>0.859547935520437</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8994158798335813</v>
+        <v>0.8966627311745882</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8262782411834088</v>
+        <v>0.8264820068116877</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7720030194523038</v>
+        <v>0.7745368463002237</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8240677025535399</v>
+        <v>0.8270871273431316</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8604641501143326</v>
+        <v>0.8610752607890413</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8091194890900918</v>
+        <v>0.810399591495838</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8567964530117826</v>
+        <v>0.8560515472421869</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.7888067413441705</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.782171498823464</v>
+        <v>0.7821714988234639</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8355356036700091</v>
+        <v>0.837147438294664</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8286668504750075</v>
+        <v>0.830318582322496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8143592745959232</v>
+        <v>0.8146258290255074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7176285496461454</v>
+        <v>0.7176546814587423</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7221630306085746</v>
+        <v>0.7223811662384126</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.723934221923683</v>
+        <v>0.7254638927263948</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7793645727725934</v>
+        <v>0.780465465920494</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7787502473711534</v>
+        <v>0.7786131616706237</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7736051099718866</v>
+        <v>0.7729448535336289</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8607922078452931</v>
+        <v>0.8618124949943494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8545950295163962</v>
+        <v>0.8551840843419124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8417310917158919</v>
+        <v>0.8411525652118899</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.747757320165588</v>
+        <v>0.7497929414691309</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7514736445837817</v>
+        <v>0.7534998241695841</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7499597495793051</v>
+        <v>0.7510292185889862</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7998178526622486</v>
+        <v>0.7990665142474879</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7991021013472775</v>
+        <v>0.7983482920666615</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7928374519643929</v>
+        <v>0.790710197715811</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>821715</v>
+        <v>825825</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>886446</v>
+        <v>883683</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>332934</v>
+        <v>333457</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>713317</v>
+        <v>714607</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>843183</v>
+        <v>840096</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>350331</v>
+        <v>351417</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1558962</v>
+        <v>1552903</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1747347</v>
+        <v>1742347</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>696226</v>
+        <v>693437</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>875381</v>
+        <v>877689</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>936612</v>
+        <v>936461</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>375052</v>
+        <v>375313</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>779981</v>
+        <v>778943</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>910846</v>
+        <v>907791</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>393995</v>
+        <v>392423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1643248</v>
+        <v>1637879</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1832620</v>
+        <v>1826994</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>759101</v>
+        <v>753969</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>806507</v>
+        <v>808516</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>749865</v>
+        <v>751072</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>723255</v>
+        <v>724582</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>786501</v>
+        <v>785867</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>705091</v>
+        <v>706836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>744006</v>
+        <v>741959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1608602</v>
+        <v>1609921</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1467047</v>
+        <v>1473227</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1483674</v>
+        <v>1488984</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>851970</v>
+        <v>851292</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>791455</v>
+        <v>790542</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>777453</v>
+        <v>778375</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>844803</v>
+        <v>844950</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>759687</v>
+        <v>763005</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>796797</v>
+        <v>797430</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1685426</v>
+        <v>1682585</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1541260</v>
+        <v>1544402</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1559732</v>
+        <v>1558821</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>726914</v>
+        <v>726752</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>685121</v>
+        <v>686003</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>887679</v>
+        <v>887508</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>639993</v>
+        <v>641168</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>572509</v>
+        <v>573780</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>825465</v>
+        <v>824840</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1381086</v>
+        <v>1382086</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1272705</v>
+        <v>1275531</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1726468</v>
+        <v>1728199</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>769691</v>
+        <v>770398</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>726495</v>
+        <v>725259</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>930713</v>
+        <v>931079</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>690327</v>
+        <v>690829</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>618795</v>
+        <v>617863</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>869042</v>
+        <v>868682</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1448350</v>
+        <v>1447983</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1333045</v>
+        <v>1336480</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1787443</v>
+        <v>1786238</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>422026</v>
+        <v>423630</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>399343</v>
+        <v>398519</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>830363</v>
+        <v>827338</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>331690</v>
+        <v>330693</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>332822</v>
+        <v>333643</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>696842</v>
+        <v>697976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>765200</v>
+        <v>766637</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>743505</v>
+        <v>743406</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1540169</v>
+        <v>1542482</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>454008</v>
+        <v>454413</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>435027</v>
+        <v>433099</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>877145</v>
+        <v>874460</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>368321</v>
+        <v>368412</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>372371</v>
+        <v>373593</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>739257</v>
+        <v>741966</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>813850</v>
+        <v>814428</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>797963</v>
+        <v>799226</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1604198</v>
+        <v>1602803</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2828253</v>
+        <v>2833709</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2762028</v>
+        <v>2767533</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2821250</v>
+        <v>2822173</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2523316</v>
+        <v>2523408</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2513275</v>
+        <v>2514035</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2657093</v>
+        <v>2662708</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5378508</v>
+        <v>5386105</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5305861</v>
+        <v>5304927</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5519466</v>
+        <v>5514755</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2913745</v>
+        <v>2917199</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2848449</v>
+        <v>2850412</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2916076</v>
+        <v>2914072</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2629255</v>
+        <v>2636412</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2615282</v>
+        <v>2622334</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2752616</v>
+        <v>2756542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5519659</v>
+        <v>5514474</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5444525</v>
+        <v>5439389</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5656684</v>
+        <v>5641506</v>
       </c>
     </row>
     <row r="24">
